--- a/VILLANUEVA, RICHELLE ALEGRE.xlsx
+++ b/VILLANUEVA, RICHELLE ALEGRE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E67198-33AD-44A8-841D-9B6EEB3DA8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB15BBFE-2ECD-4DAE-A09E-DD6A78D04612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1335,7 +1335,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A150" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K161" sqref="K161"/>
+      <selection pane="bottomLeft" activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1504,7 +1504,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.207999999999998</v>
+        <v>49.207999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4697,7 +4697,9 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="38"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C161" s="13"/>
       <c r="D161" s="37"/>
       <c r="E161" s="9"/>
@@ -4706,10 +4708,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H161" s="37"/>
+      <c r="H161" s="37">
+        <v>1</v>
+      </c>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="20"/>
+      <c r="K161" s="45">
+        <v>44904</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="38"/>
